--- a/output/1Y_P97_1VAL-D.xlsx
+++ b/output/1Y_P97_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>18.1364</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>551.3773</v>
       </c>
-      <c r="G2" s="1">
-        <v>551.3773</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.115400000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.1364</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.115400000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>18.2605</v>
       </c>
+      <c r="E3" s="1">
+        <v>551.3773</v>
+      </c>
       <c r="F3" s="1">
         <v>547.6301</v>
       </c>
-      <c r="G3" s="1">
-        <v>1099.0075</v>
-      </c>
       <c r="H3" s="1">
-        <v>19964.3499</v>
+        <v>10016.2105</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.1982</v>
+        <v>10016.2105</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>18.1364</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19964.3499</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0008</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>18.0221</v>
       </c>
+      <c r="E4" s="1">
+        <v>1099.0075</v>
+      </c>
       <c r="F4" s="1">
         <v>554.8742999999999</v>
       </c>
-      <c r="G4" s="1">
-        <v>1653.8818</v>
-      </c>
       <c r="H4" s="1">
-        <v>29651.7846</v>
+        <v>19703.6653</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>-0</v>
       </c>
       <c r="J4" s="1">
-        <v>18.1391</v>
+        <v>19703.6653</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.1982</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29651.7846</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0104</v>
+        <v>-0.0156</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>18.2846</v>
       </c>
+      <c r="E5" s="1">
+        <v>1653.8818</v>
+      </c>
       <c r="F5" s="1">
         <v>546.9083000000001</v>
       </c>
-      <c r="G5" s="1">
-        <v>2200.7901</v>
-      </c>
       <c r="H5" s="1">
-        <v>40031.9316</v>
+        <v>30083.7785</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>-0</v>
       </c>
       <c r="J5" s="1">
-        <v>18.1753</v>
+        <v>30083.7785</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>18.1391</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40031.9316</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.009599999999999999</v>
+        <v>0.0128</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>16.485</v>
       </c>
+      <c r="E6" s="1">
+        <v>2200.7901</v>
+      </c>
       <c r="F6" s="1">
         <v>606.6121000000001</v>
       </c>
-      <c r="G6" s="1">
-        <v>2807.4022</v>
-      </c>
       <c r="H6" s="1">
-        <v>46040.2725</v>
+        <v>36092.0772</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>-0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.8101</v>
+        <v>36092.0772</v>
       </c>
       <c r="K6" s="1">
+        <v>40000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>18.1753</v>
+      </c>
+      <c r="M6" s="1">
         <v>1.538</v>
       </c>
-      <c r="L6" s="1">
-        <v>3046.3336</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-6953.6664</v>
+        <v>2289.3031</v>
       </c>
       <c r="O6" s="1">
-        <v>3046.3336</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>49086.6062</v>
+        <v>-7710.6969</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0189</v>
+        <v>-0.09959999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>16.9765</v>
       </c>
+      <c r="E7" s="1">
+        <v>2807.4022</v>
+      </c>
       <c r="F7" s="1">
-        <v>614.6844</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3422.0866</v>
+        <v>608.314</v>
       </c>
       <c r="H7" s="1">
-        <v>57793.5675</v>
+        <v>47412.5307</v>
       </c>
       <c r="I7" s="1">
-        <v>60435.1905</v>
+        <v>2289.3031</v>
       </c>
       <c r="J7" s="1">
-        <v>17.6603</v>
+        <v>49701.8338</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50327.0433</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.9266</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10435.1905</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>2611.1431</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>60404.7106</v>
+        <v>-10327.0433</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0223</v>
+        <v>0.07829999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>17.414</v>
       </c>
+      <c r="E8" s="1">
+        <v>3415.7162</v>
+      </c>
       <c r="F8" s="1">
-        <v>599.2414</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4021.3281</v>
+        <v>593.0311</v>
       </c>
       <c r="H8" s="1">
-        <v>69664.28079999999</v>
+        <v>59172.8428</v>
       </c>
       <c r="I8" s="1">
-        <v>70870.38099999999</v>
+        <v>1962.2598</v>
       </c>
       <c r="J8" s="1">
-        <v>17.6236</v>
+        <v>61135.1026</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60654.0866</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.7574</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10435.1905</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>2175.9526</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>71840.2334</v>
+        <v>-10327.0433</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0204</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>18.2974</v>
       </c>
+      <c r="E9" s="1">
+        <v>4008.7473</v>
+      </c>
       <c r="F9" s="1">
-        <v>570.3099999999999</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4591.6381</v>
+        <v>564.3995</v>
       </c>
       <c r="H9" s="1">
-        <v>83579.292</v>
+        <v>72969.2225</v>
       </c>
       <c r="I9" s="1">
-        <v>81305.5716</v>
+        <v>1635.2165</v>
       </c>
       <c r="J9" s="1">
-        <v>17.7073</v>
+        <v>74604.439</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70981.1299</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.7066</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10435.1905</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>1740.7621</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>85320.05409999999</v>
+        <v>-10327.0433</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0425</v>
+        <v>0.0488</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>17.699</v>
       </c>
+      <c r="E10" s="1">
+        <v>4573.1468</v>
+      </c>
       <c r="F10" s="1">
-        <v>589.5921</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5181.2302</v>
+        <v>583.4817</v>
       </c>
       <c r="H10" s="1">
-        <v>91226.9559</v>
+        <v>80520.31</v>
       </c>
       <c r="I10" s="1">
-        <v>91740.76210000001</v>
+        <v>1308.1732</v>
       </c>
       <c r="J10" s="1">
-        <v>17.7064</v>
+        <v>81828.4832</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81308.1732</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.7795</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10435.1905</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>1305.5716</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>92532.52740000001</v>
+        <v>-10327.0433</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0292</v>
+        <v>-0.0328</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>18.0595</v>
       </c>
+      <c r="E11" s="1">
+        <v>5156.6285</v>
+      </c>
       <c r="F11" s="1">
-        <v>577.8228</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5759.053</v>
+        <v>571.8344</v>
       </c>
       <c r="H11" s="1">
-        <v>103465.9935</v>
+        <v>92642.9567</v>
       </c>
       <c r="I11" s="1">
-        <v>102175.9526</v>
+        <v>981.1299</v>
       </c>
       <c r="J11" s="1">
-        <v>17.7418</v>
+        <v>93624.0866</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91635.21649999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.7704</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10435.1905</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>870.381</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>104336.3746</v>
+        <v>-10327.0433</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0176</v>
+        <v>0.0196</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>18.696</v>
       </c>
+      <c r="E12" s="1">
+        <v>5728.4629</v>
+      </c>
       <c r="F12" s="1">
-        <v>558.151</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6317.2039</v>
+        <v>552.3665</v>
       </c>
       <c r="H12" s="1">
-        <v>117494.3074</v>
+        <v>106544.2547</v>
       </c>
       <c r="I12" s="1">
-        <v>112611.1431</v>
+        <v>654.0866</v>
       </c>
       <c r="J12" s="1">
-        <v>17.8261</v>
+        <v>107198.3413</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101962.2598</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.7992</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10435.1905</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>435.1905</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>117929.498</v>
+        <v>-10327.0433</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0314</v>
+        <v>0.0345</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>17.8704</v>
       </c>
+      <c r="E13" s="1">
+        <v>6280.8294</v>
+      </c>
       <c r="F13" s="1">
-        <v>583.9372</v>
-      </c>
-      <c r="G13" s="1">
-        <v>6901.1411</v>
+        <v>577.8854</v>
       </c>
       <c r="H13" s="1">
-        <v>122686.4157</v>
+        <v>111658.7004</v>
       </c>
       <c r="I13" s="1">
-        <v>123046.3336</v>
+        <v>327.0433</v>
       </c>
       <c r="J13" s="1">
-        <v>17.8299</v>
+        <v>111985.7437</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>112289.3031</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.8781</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10435.1905</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>122686.4157</v>
+        <v>-10327.0433</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.041</v>
+        <v>-0.0445</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>17.5604</v>
       </c>
+      <c r="E14" s="1">
+        <v>6858.7148</v>
+      </c>
       <c r="F14" s="1">
-        <v>-6901.1411</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6280.8294</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>119817.632</v>
       </c>
       <c r="I14" s="1">
-        <v>123046.3336</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.8299</v>
+        <v>119817.632</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>112289.3031</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.3718</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>120558.7939</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>120558.7939</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>120558.7939</v>
+        <v>109722.3207</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0914</v>
+        <v>-0.0178</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>18.1364</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>551.3773</v>
       </c>
       <c r="G2" s="1">
-        <v>551.3773</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.115400000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.1364</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.115400000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>18.2605</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>551.3773</v>
       </c>
       <c r="F3" s="1">
         <v>549.5925999999999</v>
       </c>
       <c r="G3" s="1">
-        <v>1100.97</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10016.2105</v>
       </c>
       <c r="I3" s="1">
-        <v>20035.8359</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.1983</v>
+        <v>10016.2105</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10035.8359</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>18.2014</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10035.8359</v>
       </c>
-      <c r="O3" s="1">
-        <v>-35.8359</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19964.1641</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0008</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>18.0221</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1100.97</v>
       </c>
       <c r="F4" s="1">
         <v>552.8858</v>
       </c>
       <c r="G4" s="1">
-        <v>1653.8558</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>29651.3192</v>
+        <v>19738.8499</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>-35.8359</v>
       </c>
       <c r="J4" s="1">
-        <v>18.1394</v>
+        <v>19703.014</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.1658</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9964.1641</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29651.3192</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0104</v>
+        <v>-0.0156</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>18.2846</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1653.8558</v>
       </c>
       <c r="F5" s="1">
         <v>545.1788</v>
       </c>
       <c r="G5" s="1">
-        <v>2199.0346</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>30083.3063</v>
       </c>
       <c r="I5" s="1">
-        <v>39968.3766</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>18.1754</v>
+        <v>30083.3063</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29968.3766</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>18.1203</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9968.3766</v>
       </c>
-      <c r="O5" s="1">
-        <v>31.6234</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40031.6234</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.009599999999999999</v>
+        <v>0.0128</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>16.485</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2199.0346</v>
       </c>
       <c r="F6" s="1">
         <v>608.5304</v>
       </c>
       <c r="G6" s="1">
-        <v>2807.565</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>46042.9431</v>
+        <v>36063.2882</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>31.6234</v>
       </c>
       <c r="J6" s="1">
-        <v>17.809</v>
+        <v>36094.9116</v>
       </c>
       <c r="K6" s="1">
+        <v>40000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>18.1898</v>
+      </c>
+      <c r="M6" s="1">
         <v>1.538</v>
       </c>
-      <c r="L6" s="1">
-        <v>3043.9037</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-6987.7196</v>
+        <v>2289.2672</v>
       </c>
       <c r="O6" s="1">
-        <v>3043.9037</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>49086.8468</v>
+        <v>-7742.3562</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0189</v>
+        <v>-0.09950000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>16.9765</v>
       </c>
       <c r="E7" s="1">
+        <v>2807.565</v>
+      </c>
+      <c r="F7" s="1">
+        <v>723.8988000000001</v>
+      </c>
+      <c r="G7" s="1">
         <v>60000</v>
       </c>
-      <c r="F7" s="1">
-        <v>745.1694</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3552.7344</v>
-      </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>47415.2809</v>
       </c>
       <c r="I7" s="1">
-        <v>62650.3686</v>
+        <v>2289.2672</v>
       </c>
       <c r="J7" s="1">
-        <v>17.6344</v>
+        <v>49704.5481</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>52289.2672</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>18.6244</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-12650.3686</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>393.5352</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>60393.5352</v>
+        <v>-12289.2672</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0221</v>
+        <v>0.07829999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>17.414</v>
       </c>
       <c r="E8" s="1">
+        <v>3531.4638</v>
+      </c>
+      <c r="F8" s="1">
+        <v>509.2435</v>
+      </c>
+      <c r="G8" s="1">
         <v>70000</v>
       </c>
-      <c r="F8" s="1">
-        <v>487.9728</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4040.7072</v>
-      </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>61178.0188</v>
       </c>
       <c r="I8" s="1">
-        <v>71147.92720000001</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.6078</v>
+        <v>61178.0188</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>61157.2331</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.3178</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-8497.5587</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>1895.9765</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>71895.9765</v>
+        <v>-8867.965899999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0213</v>
+        <v>0.0247</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>18.2974</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>4040.7072</v>
       </c>
       <c r="F9" s="1">
         <v>354.2934</v>
       </c>
       <c r="G9" s="1">
-        <v>4395.0007</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>73550.97349999999</v>
       </c>
       <c r="I9" s="1">
-        <v>77630.57610000001</v>
+        <v>1132.0341</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6634</v>
+        <v>74683.0076</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>67639.8821</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.7396</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-6482.6489</v>
       </c>
-      <c r="O9" s="1">
-        <v>5413.3276</v>
-      </c>
-      <c r="P9" s="1">
-        <v>85413.3276</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0429</v>
+        <v>0.0492</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>17.699</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4395.0007</v>
       </c>
       <c r="F10" s="1">
         <v>716.5445999999999</v>
       </c>
       <c r="G10" s="1">
-        <v>5111.5453</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>77383.65609999999</v>
       </c>
       <c r="I10" s="1">
-        <v>90312.6989</v>
+        <v>4649.3851</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6684</v>
+        <v>82033.04120000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80322.0048</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>18.2758</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-12682.1227</v>
       </c>
-      <c r="O10" s="1">
-        <v>2731.2049</v>
-      </c>
-      <c r="P10" s="1">
-        <v>92731.2049</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0281</v>
+        <v>-0.0313</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>18.0595</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5111.5453</v>
       </c>
       <c r="F11" s="1">
         <v>454.5859</v>
       </c>
       <c r="G11" s="1">
-        <v>5566.1312</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>91833.0001</v>
       </c>
       <c r="I11" s="1">
-        <v>98522.2934</v>
+        <v>1967.2624</v>
       </c>
       <c r="J11" s="1">
-        <v>17.7003</v>
+        <v>93800.2626</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>88531.5993</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.3199</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-8209.5946</v>
       </c>
-      <c r="O11" s="1">
-        <v>4521.6103</v>
-      </c>
-      <c r="P11" s="1">
-        <v>104521.6103</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0174</v>
+        <v>0.0192</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>18.696</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5566.1312</v>
       </c>
       <c r="F12" s="1">
         <v>348.1335</v>
       </c>
       <c r="G12" s="1">
-        <v>5914.2647</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>103525.0309</v>
       </c>
       <c r="I12" s="1">
-        <v>105030.9967</v>
+        <v>3757.6679</v>
       </c>
       <c r="J12" s="1">
-        <v>17.7589</v>
+        <v>107282.6988</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>95040.3026</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.0748</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-6508.7032</v>
       </c>
-      <c r="O12" s="1">
-        <v>8012.9071</v>
-      </c>
-      <c r="P12" s="1">
-        <v>118012.9071</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0305</v>
+        <v>0.0335</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>17.8704</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>5914.2647</v>
       </c>
       <c r="F13" s="1">
         <v>835.7649</v>
       </c>
       <c r="G13" s="1">
-        <v>6750.0295</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>105142.023</v>
       </c>
       <c r="I13" s="1">
-        <v>119966.4491</v>
+        <v>7248.9646</v>
       </c>
       <c r="J13" s="1">
-        <v>17.7727</v>
+        <v>112390.9876</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>109975.755</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>18.595</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-14935.4524</v>
       </c>
-      <c r="O13" s="1">
-        <v>3077.4547</v>
-      </c>
-      <c r="P13" s="1">
-        <v>123077.4547</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0386</v>
+        <v>-0.0417</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>17.5604</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6750.0295</v>
       </c>
       <c r="F14" s="1">
         <v>-6750.0295</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>117918.9659</v>
       </c>
       <c r="I14" s="1">
-        <v>119966.4491</v>
+        <v>2313.5122</v>
       </c>
       <c r="J14" s="1">
-        <v>17.7727</v>
+        <v>120232.4781</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>109975.755</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.2926</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>117918.9659</v>
       </c>
-      <c r="O14" s="1">
-        <v>120996.4206</v>
-      </c>
-      <c r="P14" s="1">
-        <v>120996.4206</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.09080000000000001</v>
+        <v>-0.0176</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>18.1364</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>551.3773</v>
       </c>
       <c r="G2" s="1">
-        <v>551.3773</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.115400000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.1364</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.115400000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>18.2605</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>551.3773</v>
       </c>
       <c r="F3" s="1">
         <v>547.6301</v>
       </c>
       <c r="G3" s="1">
-        <v>1099.0075</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>19964.3499</v>
+        <v>10016.2105</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.1982</v>
+        <v>10016.2105</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>18.1364</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19964.3499</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0008</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>18.0221</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1099.0075</v>
       </c>
       <c r="F4" s="1">
         <v>554.8742999999999</v>
       </c>
       <c r="G4" s="1">
-        <v>1653.8818</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29651.7846</v>
+        <v>19703.6653</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>-0</v>
       </c>
       <c r="J4" s="1">
-        <v>18.1391</v>
+        <v>19703.6653</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.1982</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29651.7846</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0104</v>
+        <v>-0.0156</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>18.2846</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1653.8818</v>
       </c>
       <c r="F5" s="1">
         <v>546.9083000000001</v>
       </c>
       <c r="G5" s="1">
-        <v>2200.7901</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40031.9316</v>
+        <v>30083.7785</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>18.1753</v>
+        <v>30083.7785</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>18.1391</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40031.9316</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.009599999999999999</v>
+        <v>0.0128</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>16.485</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2200.7901</v>
       </c>
       <c r="F6" s="1">
         <v>606.6121000000001</v>
       </c>
       <c r="G6" s="1">
-        <v>2807.4022</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>46040.2725</v>
+        <v>36092.0772</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.8101</v>
+        <v>36092.0772</v>
       </c>
       <c r="K6" s="1">
+        <v>40000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>18.1753</v>
+      </c>
+      <c r="M6" s="1">
         <v>1.538</v>
       </c>
-      <c r="L6" s="1">
-        <v>3046.3336</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-6953.6664</v>
+        <v>2289.3031</v>
       </c>
       <c r="O6" s="1">
-        <v>3046.3336</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>49086.6062</v>
+        <v>-7710.6969</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0189</v>
+        <v>-0.09959999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>16.9765</v>
       </c>
       <c r="E7" s="1">
+        <v>2807.4022</v>
+      </c>
+      <c r="F7" s="1">
+        <v>723.9009</v>
+      </c>
+      <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
-      <c r="F7" s="1">
-        <v>768.4937</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3575.8959</v>
-      </c>
       <c r="H7" s="1">
-        <v>60391.16</v>
+        <v>47412.5307</v>
       </c>
       <c r="I7" s="1">
-        <v>63046.3336</v>
+        <v>2289.3031</v>
       </c>
       <c r="J7" s="1">
-        <v>17.6309</v>
+        <v>49701.8338</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>52289.3031</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>18.6255</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-13046.3336</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>60391.16</v>
+        <v>-12289.3031</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0221</v>
+        <v>0.07829999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>17.414</v>
       </c>
       <c r="E8" s="1">
+        <v>3531.303</v>
+      </c>
+      <c r="F8" s="1">
+        <v>570.5223999999999</v>
+      </c>
+      <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
-      <c r="F8" s="1">
-        <v>525.9296000000001</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4101.8255</v>
-      </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>61175.2344</v>
       </c>
       <c r="I8" s="1">
-        <v>72204.8714</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.6031</v>
+        <v>61175.2344</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>62224.3808</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.6208</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-9158.5378</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>841.4622000000001</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>71900.2561</v>
+        <v>-9935.0777</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0214</v>
+        <v>0.0247</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>18.2974</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4101.8255</v>
       </c>
       <c r="F9" s="1">
         <v>370.8617</v>
       </c>
       <c r="G9" s="1">
-        <v>4472.6872</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>74663.47809999999</v>
       </c>
       <c r="I9" s="1">
-        <v>78990.67600000001</v>
+        <v>64.92230000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6607</v>
+        <v>74728.4004</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>69010.1853</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.8243</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-6785.8045</v>
       </c>
-      <c r="O9" s="1">
-        <v>4055.6577</v>
-      </c>
-      <c r="P9" s="1">
-        <v>85469.7455</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0436</v>
+        <v>0.0499</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>17.699</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4472.6872</v>
       </c>
       <c r="F10" s="1">
         <v>742.2907</v>
       </c>
       <c r="G10" s="1">
-        <v>5214.9779</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>78751.4972</v>
       </c>
       <c r="I10" s="1">
-        <v>92128.4794</v>
+        <v>3279.1178</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6661</v>
+        <v>82030.61500000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>82147.9887</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>18.3666</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-13137.8034</v>
       </c>
-      <c r="O10" s="1">
-        <v>917.8543</v>
-      </c>
-      <c r="P10" s="1">
-        <v>92739.0126</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0286</v>
+        <v>-0.0318</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>18.0595</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5214.9779</v>
       </c>
       <c r="F11" s="1">
         <v>478.0758</v>
       </c>
       <c r="G11" s="1">
-        <v>5693.0537</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>93691.2494</v>
       </c>
       <c r="I11" s="1">
-        <v>100762.2898</v>
+        <v>141.3144</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6992</v>
+        <v>93832.5638</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90781.79919999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.4079</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-8633.8104</v>
       </c>
-      <c r="O11" s="1">
-        <v>2284.0439</v>
-      </c>
-      <c r="P11" s="1">
-        <v>104564.3079</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0178</v>
+        <v>0.0196</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>18.696</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5693.0537</v>
       </c>
       <c r="F12" s="1">
         <v>371.3078</v>
       </c>
       <c r="G12" s="1">
-        <v>6064.3615</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>105885.675</v>
       </c>
       <c r="I12" s="1">
-        <v>107704.2599</v>
+        <v>1507.504</v>
       </c>
       <c r="J12" s="1">
-        <v>17.7602</v>
+        <v>107393.179</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>97723.7693</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.1654</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-6941.9701</v>
       </c>
-      <c r="O12" s="1">
-        <v>5342.0737</v>
-      </c>
-      <c r="P12" s="1">
-        <v>118133.7391</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0312</v>
+        <v>0.0343</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>17.8704</v>
       </c>
       <c r="E13" s="1">
+        <v>6064.3615</v>
+      </c>
+      <c r="F13" s="1">
+        <v>815.0648</v>
+      </c>
+      <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
-      <c r="F13" s="1">
-        <v>858.5188000000001</v>
-      </c>
-      <c r="G13" s="1">
-        <v>6922.8802</v>
-      </c>
       <c r="H13" s="1">
-        <v>123072.8879</v>
+        <v>107810.3989</v>
       </c>
       <c r="I13" s="1">
-        <v>123046.3336</v>
+        <v>4565.5338</v>
       </c>
       <c r="J13" s="1">
-        <v>17.7739</v>
+        <v>112375.9327</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>112289.3031</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>18.5163</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-15342.0737</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>123072.8879</v>
+        <v>-14565.5338</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0395</v>
+        <v>-0.0427</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,43 +2860,43 @@
         <v>17.5604</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6879.4263</v>
       </c>
       <c r="F14" s="1">
-        <v>-6922.8802</v>
+        <v>-6879.4263</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>120179.4491</v>
       </c>
       <c r="I14" s="1">
-        <v>123046.3336</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.7739</v>
+        <v>120179.4491</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>112289.3031</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.3225</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>120938.5639</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>120938.5639</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>120938.5639</v>
+        <v>120179.4491</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0912</v>
+        <v>-0.0179</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>18.1364</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>551.3773</v>
       </c>
       <c r="G2" s="1">
-        <v>551.3773</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.115400000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.1364</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.115400000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>18.2605</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>551.3773</v>
       </c>
       <c r="F3" s="1">
         <v>547.6301</v>
       </c>
       <c r="G3" s="1">
-        <v>1099.0075</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>19964.3499</v>
+        <v>10016.2105</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.1982</v>
+        <v>10016.2105</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>18.1364</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19964.3499</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0008</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>18.0221</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1099.0075</v>
       </c>
       <c r="F4" s="1">
         <v>554.8742999999999</v>
       </c>
       <c r="G4" s="1">
-        <v>1653.8818</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>29651.7846</v>
+        <v>19703.6653</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>-0</v>
       </c>
       <c r="J4" s="1">
-        <v>18.1391</v>
+        <v>19703.6653</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.1982</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29651.7846</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0104</v>
+        <v>-0.0156</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>18.2846</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1653.8818</v>
       </c>
       <c r="F5" s="1">
         <v>546.9083000000001</v>
       </c>
       <c r="G5" s="1">
-        <v>2200.7901</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40031.9316</v>
+        <v>30083.7785</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>18.1753</v>
+        <v>30083.7785</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>18.1391</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40031.9316</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.009599999999999999</v>
+        <v>0.0128</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>16.485</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2200.7901</v>
       </c>
       <c r="F6" s="1">
         <v>606.6121000000001</v>
       </c>
       <c r="G6" s="1">
-        <v>2807.4022</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>46040.2725</v>
+        <v>36092.0772</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.8101</v>
+        <v>36092.0772</v>
       </c>
       <c r="K6" s="1">
+        <v>40000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>18.1753</v>
+      </c>
+      <c r="M6" s="1">
         <v>1.538</v>
       </c>
-      <c r="L6" s="1">
-        <v>3046.3336</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-6953.6664</v>
+        <v>2289.3031</v>
       </c>
       <c r="O6" s="1">
-        <v>3046.3336</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>49086.6062</v>
+        <v>-7710.6969</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0189</v>
+        <v>-0.09959999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>16.9765</v>
       </c>
       <c r="E7" s="1">
+        <v>2807.4022</v>
+      </c>
+      <c r="F7" s="1">
+        <v>723.9009</v>
+      </c>
+      <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
-      <c r="F7" s="1">
-        <v>768.4937</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3575.8959</v>
-      </c>
       <c r="H7" s="1">
-        <v>60391.16</v>
+        <v>47412.5307</v>
       </c>
       <c r="I7" s="1">
-        <v>63046.3336</v>
+        <v>2289.3031</v>
       </c>
       <c r="J7" s="1">
-        <v>17.6309</v>
+        <v>49701.8338</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>52289.3031</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>18.6255</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-13046.3336</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>60391.16</v>
+        <v>-12289.3031</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0221</v>
+        <v>0.07829999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>17.414</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3531.303</v>
       </c>
       <c r="F8" s="1">
         <v>574.2506</v>
       </c>
       <c r="G8" s="1">
-        <v>4150.1465</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>71895.8927</v>
+        <v>61175.2344</v>
       </c>
       <c r="I8" s="1">
-        <v>73046.3336</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.6009</v>
+        <v>61175.2344</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>62289.3031</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.6392</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>71895.8927</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0214</v>
+        <v>0.0247</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>18.2974</v>
       </c>
       <c r="E9" s="1">
+        <v>4105.5536</v>
+      </c>
+      <c r="F9" s="1">
+        <v>446.3873</v>
+      </c>
+      <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
-      <c r="F9" s="1">
-        <v>401.7945</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4551.941</v>
-      </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>74731.3401</v>
       </c>
       <c r="I9" s="1">
-        <v>80398.1281</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6624</v>
+        <v>74731.3401</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70457.03079999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.1614</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-7351.7945</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>2648.2055</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>85504.9111</v>
+        <v>-8167.7277</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0441</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>17.699</v>
       </c>
       <c r="E10" s="1">
+        <v>4551.941</v>
+      </c>
+      <c r="F10" s="1">
+        <v>668.5277</v>
+      </c>
+      <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
-      <c r="F10" s="1">
-        <v>714.6283</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5266.5692</v>
-      </c>
       <c r="H10" s="1">
-        <v>92729.53780000001</v>
+        <v>80146.93520000001</v>
       </c>
       <c r="I10" s="1">
-        <v>93046.3336</v>
+        <v>1832.2723</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6674</v>
+        <v>81979.2075</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>82289.3031</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>18.0778</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-12648.2055</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>92729.53780000001</v>
+        <v>-11832.2723</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0291</v>
+        <v>-0.0325</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>18.0595</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5220.4687</v>
       </c>
       <c r="F11" s="1">
         <v>553.7252</v>
       </c>
       <c r="G11" s="1">
-        <v>5820.2944</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>104566.2455</v>
+        <v>93789.8967</v>
       </c>
       <c r="I11" s="1">
-        <v>103046.3336</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.7047</v>
+        <v>93789.8967</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>92289.3031</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.6784</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>104566.2455</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0179</v>
+        <v>0.0197</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>18.696</v>
       </c>
       <c r="E12" s="1">
+        <v>5774.1939</v>
+      </c>
+      <c r="F12" s="1">
+        <v>444.8353</v>
+      </c>
+      <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
-      <c r="F12" s="1">
-        <v>398.7348</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6219.0292</v>
-      </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>107394.8096</v>
       </c>
       <c r="I12" s="1">
-        <v>110501.0798</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.7682</v>
+        <v>107394.8096</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100605.9447</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.4234</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-7454.7461</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>2545.2539</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>118213.6005</v>
+        <v>-8316.641600000001</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0318</v>
+        <v>0.0347</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>17.8704</v>
       </c>
       <c r="E13" s="1">
+        <v>6219.0292</v>
+      </c>
+      <c r="F13" s="1">
+        <v>653.7827</v>
+      </c>
+      <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
-      <c r="F13" s="1">
-        <v>702.013</v>
-      </c>
-      <c r="G13" s="1">
-        <v>6921.0423</v>
-      </c>
       <c r="H13" s="1">
-        <v>123040.2133</v>
+        <v>110560.0361</v>
       </c>
       <c r="I13" s="1">
-        <v>123046.3336</v>
+        <v>1683.3584</v>
       </c>
       <c r="J13" s="1">
-        <v>17.7786</v>
+        <v>112243.3945</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>112289.3031</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>18.0558</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-12545.2539</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>123040.2133</v>
+        <v>-11683.3584</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0403</v>
+        <v>-0.0439</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,43 +3628,43 @@
         <v>17.5604</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6872.8119</v>
       </c>
       <c r="F14" s="1">
-        <v>-6921.0423</v>
+        <v>-6872.8119</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>120063.9009</v>
       </c>
       <c r="I14" s="1">
-        <v>123046.3336</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.7786</v>
+        <v>120063.9009</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>112289.3031</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.3382</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>120906.456</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>120906.456</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>120906.456</v>
+        <v>120063.9009</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0912</v>
+        <v>-0.0178</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>18.1364</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>551.3773</v>
       </c>
       <c r="G2" s="1">
-        <v>551.3773</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.115400000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.1364</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.115400000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>18.2605</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>551.3773</v>
       </c>
       <c r="F3" s="1">
         <v>547.6301</v>
       </c>
       <c r="G3" s="1">
-        <v>1099.0075</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>19964.3499</v>
+        <v>10016.2105</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.1982</v>
+        <v>10016.2105</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>18.1364</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19964.3499</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0008</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>18.0221</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1099.0075</v>
       </c>
       <c r="F4" s="1">
         <v>554.8742999999999</v>
       </c>
       <c r="G4" s="1">
-        <v>1653.8818</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29651.7846</v>
+        <v>19703.6653</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>-0</v>
       </c>
       <c r="J4" s="1">
-        <v>18.1391</v>
+        <v>19703.6653</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.1982</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29651.7846</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0104</v>
+        <v>-0.0156</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>18.2846</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1653.8818</v>
       </c>
       <c r="F5" s="1">
         <v>546.9083000000001</v>
       </c>
       <c r="G5" s="1">
-        <v>2200.7901</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40031.9316</v>
+        <v>30083.7785</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>18.1753</v>
+        <v>30083.7785</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>18.1391</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40031.9316</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.009599999999999999</v>
+        <v>0.0128</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>16.485</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2200.7901</v>
       </c>
       <c r="F6" s="1">
         <v>606.6121000000001</v>
       </c>
       <c r="G6" s="1">
-        <v>2807.4022</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>46040.2725</v>
+        <v>36092.0772</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.8101</v>
+        <v>36092.0772</v>
       </c>
       <c r="K6" s="1">
+        <v>40000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>18.1753</v>
+      </c>
+      <c r="M6" s="1">
         <v>1.538</v>
       </c>
-      <c r="L6" s="1">
-        <v>3046.3336</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-6953.6664</v>
+        <v>2289.3031</v>
       </c>
       <c r="O6" s="1">
-        <v>3046.3336</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>49086.6062</v>
+        <v>-7710.6969</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0189</v>
+        <v>-0.09959999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>16.9765</v>
       </c>
       <c r="E7" s="1">
+        <v>2807.4022</v>
+      </c>
+      <c r="F7" s="1">
+        <v>723.9009</v>
+      </c>
+      <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
-      <c r="F7" s="1">
-        <v>768.4937</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3575.8959</v>
-      </c>
       <c r="H7" s="1">
-        <v>60391.16</v>
+        <v>47412.5307</v>
       </c>
       <c r="I7" s="1">
-        <v>63046.3336</v>
+        <v>2289.3031</v>
       </c>
       <c r="J7" s="1">
-        <v>17.6309</v>
+        <v>49701.8338</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>52289.3031</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>18.6255</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-13046.3336</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>60391.16</v>
+        <v>-12289.3031</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0221</v>
+        <v>0.07829999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>17.414</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3531.303</v>
       </c>
       <c r="F8" s="1">
         <v>574.2506</v>
       </c>
       <c r="G8" s="1">
-        <v>4150.1465</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>71895.8927</v>
+        <v>61175.2344</v>
       </c>
       <c r="I8" s="1">
-        <v>73046.3336</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.6009</v>
+        <v>61175.2344</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>62289.3031</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.6392</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>71895.8927</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0214</v>
+        <v>0.0247</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>18.2974</v>
       </c>
       <c r="E9" s="1">
+        <v>4105.5536</v>
+      </c>
+      <c r="F9" s="1">
+        <v>527.2381</v>
+      </c>
+      <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
-      <c r="F9" s="1">
-        <v>482.6452</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4632.7917</v>
-      </c>
       <c r="H9" s="1">
-        <v>84328.39109999999</v>
+        <v>74731.3401</v>
       </c>
       <c r="I9" s="1">
-        <v>81877.4863</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6735</v>
+        <v>74731.3401</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>71936.389</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.5217</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-8831.152700000001</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>1168.8473</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>85497.2384</v>
+        <v>-9647.0859</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.044</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>17.699</v>
       </c>
       <c r="E10" s="1">
+        <v>4632.7917</v>
+      </c>
+      <c r="F10" s="1">
+        <v>584.9435</v>
+      </c>
+      <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
-      <c r="F10" s="1">
-        <v>631.044</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5263.8357</v>
-      </c>
       <c r="H10" s="1">
-        <v>92681.4077</v>
+        <v>81570.4902</v>
       </c>
       <c r="I10" s="1">
-        <v>93046.3336</v>
+        <v>352.9141</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6765</v>
+        <v>81923.40429999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>82289.3031</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.7624</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-11168.8473</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>92681.4077</v>
+        <v>-10352.9141</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0295</v>
+        <v>-0.0331</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>18.0595</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5217.7352</v>
       </c>
       <c r="F11" s="1">
         <v>553.7252</v>
       </c>
       <c r="G11" s="1">
-        <v>5817.5609</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>104517.1351</v>
+        <v>93740.78630000001</v>
       </c>
       <c r="I11" s="1">
-        <v>103046.3336</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.713</v>
+        <v>93740.78630000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>92289.3031</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.6876</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>104517.1351</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0179</v>
+        <v>0.0198</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>18.696</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>5771.4603</v>
       </c>
       <c r="F12" s="1">
         <v>534.8738</v>
       </c>
       <c r="G12" s="1">
-        <v>6352.4346</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>118149.5671</v>
+        <v>107343.9681</v>
       </c>
       <c r="I12" s="1">
-        <v>113046.3336</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.7957</v>
+        <v>107343.9681</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>102289.3031</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.7233</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>118149.5671</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0317</v>
+        <v>0.0347</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>17.8704</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6306.3341</v>
       </c>
       <c r="F13" s="1">
         <v>559.5846</v>
       </c>
       <c r="G13" s="1">
-        <v>6912.0192</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>122879.8038</v>
+        <v>112112.116</v>
       </c>
       <c r="I13" s="1">
-        <v>123046.3336</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.8018</v>
+        <v>112112.116</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>112289.3031</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.8058</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>122879.8038</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0411</v>
+        <v>-0.0446</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>17.5604</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6865.9187</v>
       </c>
       <c r="F14" s="1">
-        <v>-6912.0192</v>
+        <v>-6865.9187</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>119943.4798</v>
       </c>
       <c r="I14" s="1">
-        <v>123046.3336</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.8018</v>
+        <v>119943.4798</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>112289.3031</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.3546</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>120748.8283</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>120748.8283</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>120748.8283</v>
+        <v>119943.4798</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.09130000000000001</v>
+        <v>-0.0178</v>
       </c>
     </row>
   </sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>17.5131</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>17.8299</v>
+        <v>16.3718</v>
       </c>
       <c r="D3" s="1">
-        <v>17.7727</v>
+        <v>16.2926</v>
       </c>
       <c r="E3" s="1">
-        <v>17.7739</v>
+        <v>16.3225</v>
       </c>
       <c r="F3" s="1">
-        <v>17.7786</v>
+        <v>16.3382</v>
       </c>
       <c r="G3" s="1">
-        <v>17.8018</v>
+        <v>16.3546</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>-0.0223</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.0463</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.0421</v>
+        <v>0.0136</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.0422</v>
+        <v>0.0135</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.0423</v>
+        <v>0.0124</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.0438</v>
+        <v>0.0112</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1385</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1236</v>
+        <v>0.156</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1223</v>
+        <v>0.1549</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1234</v>
+        <v>0.1558</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1242</v>
+        <v>0.1564</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1245</v>
+        <v>0.1567</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>-0.3081</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.539</v>
+        <v>-0.0707</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.5101</v>
+        <v>-0.0433</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.5064</v>
+        <v>-0.0439</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.5043</v>
+        <v>-0.0506</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.5151</v>
+        <v>-0.0582</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.008699999999999999</v>
+        <v>-0.1559</v>
       </c>
       <c r="D7" s="3">
-        <v>0.016</v>
+        <v>0.0037</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0148</v>
+        <v>0.0028</v>
       </c>
       <c r="F7" s="3">
-        <v>0.0141</v>
+        <v>0.001</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0116</v>
+        <v>-0.0009</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>3046.3336</v>
+        <v>2289.3031</v>
       </c>
       <c r="D8" s="1">
-        <v>3043.9037</v>
+        <v>2289.2672</v>
       </c>
       <c r="E8" s="1">
-        <v>3046.3336</v>
+        <v>2289.3031</v>
       </c>
       <c r="F8" s="1">
-        <v>3046.3336</v>
+        <v>2289.3031</v>
       </c>
       <c r="G8" s="1">
-        <v>3046.3336</v>
+        <v>2289.3031</v>
       </c>
     </row>
   </sheetData>
